--- a/biology/Botanique/Dillenia_indica/Dillenia_indica.xlsx
+++ b/biology/Botanique/Dillenia_indica/Dillenia_indica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dillenia indica, communément appelé Dillénie ou baboul ou pomme d'éléphant ou chalta, est une espèce d'arbustes de la famille des Dilleniaceae.
 Elle est originaire d'Asie : Chine, Inde, Sri Lanka, Thaïlande, Viêt Nam, Indonésie et Malaisie. On la trouve près du lit des rivières et dans les sables alluvionaux.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dillenia indica est un arbuste de 6 à 8 m de haut avec une couronne largement déployée (le City Botanic Gardens de Brisban en Australie et le Guide Delachaux "Plantes tropicales : à l'état sauvage ou acclimatées"[1] mentionnent que c'est en réalité un arbre de 15 m de haut).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dillenia indica est un arbuste de 6 à 8 m de haut avec une couronne largement déployée (le City Botanic Gardens de Brisban en Australie et le Guide Delachaux "Plantes tropicales : à l'état sauvage ou acclimatées" mentionnent que c'est en réalité un arbre de 15 m de haut).
 Son tronc lisse est de couleur cacao. Ses feuilles alternes et oblongues, vert foncé et coriaces, mesurent de 30 à 50 cm de longueur. Ses fleurs blanches sont larges de 15 à 20 cm avec cinq pétales et cinq sépales charnus : elles ne fleurissent qu'une journée. Ses fruits en forme de pomme, enveloppés dans les sépales, sont des capsules sèches de 10 à 15 cm de diamètre à l'épicarpe épais, charnu et très juteux.
 </t>
         </is>
@@ -544,10 +558,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle peut être utilisée comme arbuste ornemental. C'est une espèce riche en tannins pouvant servir de colorant.
-La pulpe de son fruit est aromatique :  on en tire une boisson rafraîchissante au goût très acide ; réfrigérée et sucrée, elle peut se manger crue[2].
+La pulpe de son fruit est aromatique :  on en tire une boisson rafraîchissante au goût très acide ; réfrigérée et sucrée, elle peut se manger crue.
 </t>
         </is>
       </c>
